--- a/biology/Botanique/Bertiera_lejolyana/Bertiera_lejolyana.xlsx
+++ b/biology/Botanique/Bertiera_lejolyana/Bertiera_lejolyana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertiera lejolyana est une espèce de plantes à fleurs de la famille des Rubiaceae et du genre Bertiera, présente en Afrique centrale atlantique.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique lejolyana rend hommage au botaniste belge Jean Lejoly.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste dont la hauteur est comprise entre 2 et 6 m[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste dont la hauteur est comprise entre 2 et 6 m.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique du domaine bas-guinéen. Au Cameroun, elle a été collectée à Deng-Deng dans la Région de l'Est, dans les massifs de Ngovayang et dans la zone d’Efoulan au sud d’Akom II dans le parc national de Campo-Ma'an. Dans la région continentale de la Guinée équatoriale, elle a été observée au mont Chocolat et dans le parc national de Monte Alén ; au Gabon, au sud-est de Makokou[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique du domaine bas-guinéen. Au Cameroun, elle a été collectée à Deng-Deng dans la Région de l'Est, dans les massifs de Ngovayang et dans la zone d’Efoulan au sud d’Akom II dans le parc national de Campo-Ma'an. Dans la région continentale de la Guinée équatoriale, elle a été observée au mont Chocolat et dans le parc national de Monte Alén ; au Gabon, au sud-est de Makokou. 
 </t>
         </is>
       </c>
